--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3107.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3107.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.960328005888921</v>
+        <v>1.29601514339447</v>
       </c>
       <c r="B1">
-        <v>2.152977063424515</v>
+        <v>2.319894790649414</v>
       </c>
       <c r="C1">
-        <v>2.318262850437537</v>
+        <v>3.148501634597778</v>
       </c>
       <c r="D1">
-        <v>3.271140625718058</v>
+        <v>3.681742668151855</v>
       </c>
       <c r="E1">
-        <v>2.766528774636896</v>
+        <v>1.813809156417847</v>
       </c>
     </row>
   </sheetData>
